--- a/Excel1.xlsx
+++ b/Excel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitTest\ExcelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9A11E2-2D63-4E25-8BEF-3E57A5A13E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CBB07-D293-4E1B-B2EE-9765B9972664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3BFC4D1-3016-4C37-AD21-58EFADF0D95A}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,10 +385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7EC470-9735-4B5D-BFDC-ECF1AC0E896D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +402,8 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3">
         <v>1</v>
       </c>
@@ -412,6 +414,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
